--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/ARQUI  REMODEL  11 SUR   2023--2024.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/ARQUI  REMODEL  11 SUR   2023--2024.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t xml:space="preserve">DEMOLICION           11 SUR </t>
   </si>
@@ -75,10 +75,13 @@
     <t>TUBULARES MONTERREY SA DE CV</t>
   </si>
   <si>
-    <t xml:space="preserve">PAGO DE MATERIALES PARA ACOMETIDA DE 11 SUR </t>
+    <t xml:space="preserve">SAGUAN Y PUERTA DE HERRERIA </t>
   </si>
   <si>
-    <t xml:space="preserve">LUMICOLOR EQUIPO ELECTRICO INDUS SA DE CV </t>
+    <t xml:space="preserve">LUMICOLOR   Material para ACOMETIDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMPA Niveladora mecanica </t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,8 +171,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,18 +205,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -410,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -551,22 +550,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -913,23 +911,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="84"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88"/>
     </row>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="85"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -967,7 +965,7 @@
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="90"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="10">
         <v>44725</v>
       </c>
@@ -977,7 +975,7 @@
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="91"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="12"/>
@@ -1154,16 +1152,16 @@
   <sheetPr>
     <tabColor rgb="FF990033"/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" style="53" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1172,23 +1170,23 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="95"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="93"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1196,7 +1194,7 @@
       <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="48">
         <v>45184</v>
       </c>
@@ -1208,7 +1206,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="48">
         <v>45188</v>
       </c>
@@ -1220,7 +1218,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="50">
         <v>45194</v>
       </c>
@@ -1232,7 +1230,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="50">
         <v>45201</v>
       </c>
@@ -1244,7 +1242,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="50">
         <v>45208</v>
       </c>
@@ -1256,7 +1254,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="39">
         <v>45215</v>
       </c>
@@ -1268,7 +1266,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="65">
         <v>45215</v>
       </c>
@@ -1280,7 +1278,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="39">
         <v>45222</v>
       </c>
@@ -1292,7 +1290,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="51">
         <v>45230</v>
       </c>
@@ -1304,7 +1302,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="93"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="50">
         <v>45236</v>
       </c>
@@ -1316,7 +1314,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="93"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="50">
         <v>45243</v>
       </c>
@@ -1328,7 +1326,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="50">
         <v>45250</v>
       </c>
@@ -1340,7 +1338,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="50">
         <v>45257</v>
       </c>
@@ -1352,7 +1350,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="50">
         <v>45264</v>
       </c>
@@ -1364,7 +1362,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="50">
         <v>45271</v>
       </c>
@@ -1376,7 +1374,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="50">
         <v>45273</v>
       </c>
@@ -1388,7 +1386,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="50">
         <v>45273</v>
       </c>
@@ -1400,7 +1398,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="50">
         <v>45278</v>
       </c>
@@ -1412,7 +1410,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="50">
         <v>45282</v>
       </c>
@@ -1424,7 +1422,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="50">
         <v>45289</v>
       </c>
@@ -1436,7 +1434,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="50">
         <v>45299</v>
       </c>
@@ -1448,7 +1446,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="93"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="50">
         <v>45306</v>
       </c>
@@ -1460,7 +1458,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="93"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="50">
         <v>45313</v>
       </c>
@@ -1472,7 +1470,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="93"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="50">
         <v>45320</v>
       </c>
@@ -1484,7 +1482,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="93"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="50">
         <v>45328</v>
       </c>
@@ -1496,7 +1494,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="93"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="50">
         <v>45334</v>
       </c>
@@ -1508,7 +1506,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="93"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="50">
         <v>45336</v>
       </c>
@@ -1520,7 +1518,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="93"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="50">
         <v>45341</v>
       </c>
@@ -1532,7 +1530,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="93"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="50">
         <v>45348</v>
       </c>
@@ -1544,7 +1542,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="50">
         <v>45355</v>
       </c>
@@ -1556,7 +1554,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="93"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="38">
         <v>45362</v>
       </c>
@@ -1568,7 +1566,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="93"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="38">
         <v>45369</v>
       </c>
@@ -1578,9 +1576,13 @@
       <c r="D36" s="58" t="s">
         <v>7</v>
       </c>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
     </row>
     <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="93"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="38">
         <v>45376</v>
       </c>
@@ -1590,18 +1592,13 @@
       <c r="D37" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="38">
-        <v>45370</v>
-      </c>
-      <c r="H37" s="44">
-        <v>529610.76</v>
-      </c>
-      <c r="I37" s="59" t="s">
-        <v>13</v>
-      </c>
+      <c r="F37" s="46"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="57"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
+      <c r="A38" s="92"/>
       <c r="B38" s="38">
         <v>45383</v>
       </c>
@@ -1611,9 +1608,13 @@
       <c r="D38" s="58" t="s">
         <v>7</v>
       </c>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
+      <c r="A39" s="92"/>
       <c r="B39" s="38">
         <v>45390</v>
       </c>
@@ -1623,9 +1624,13 @@
       <c r="D39" s="58" t="s">
         <v>7</v>
       </c>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="38">
         <v>45397</v>
       </c>
@@ -1635,9 +1640,13 @@
       <c r="D40" s="58" t="s">
         <v>7</v>
       </c>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="93"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="38">
         <v>45400</v>
       </c>
@@ -1647,9 +1656,13 @@
       <c r="D41" s="59" t="s">
         <v>14</v>
       </c>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="93"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="38">
         <v>45404</v>
       </c>
@@ -1659,162 +1672,226 @@
       <c r="D42" s="58" t="s">
         <v>7</v>
       </c>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="93"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="38">
+        <v>45407</v>
+      </c>
+      <c r="C43" s="11">
+        <v>51845.1</v>
+      </c>
+      <c r="D43" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="92"/>
+      <c r="B44" s="38">
         <v>45411</v>
       </c>
-      <c r="C43" s="11">
-        <v>100000</v>
-      </c>
-      <c r="D43" s="58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="93"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="58"/>
+      <c r="C44" s="11">
+        <v>100000</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="93"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="58"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="38">
+        <v>45418</v>
+      </c>
+      <c r="C45" s="11">
+        <v>100000</v>
+      </c>
+      <c r="D45" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="93"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="58"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="38">
+        <v>45418</v>
+      </c>
+      <c r="C46" s="11">
+        <v>98600</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="93"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="38"/>
       <c r="C47" s="11"/>
       <c r="D47" s="58"/>
-    </row>
-    <row r="48" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="94"/>
-      <c r="B48" s="41" t="s">
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="92"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="58"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="92"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="58"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="92"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="58"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="92"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="58"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+    </row>
+    <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="93"/>
+      <c r="B52" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="42">
-        <f>SUM(C5:C47)</f>
-        <v>3926333.52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="78">
-        <v>45342</v>
-      </c>
-      <c r="C49" s="72">
+      <c r="C52" s="42">
+        <f>SUM(C5:C51)</f>
+        <v>4176778.62</v>
+      </c>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+    </row>
+    <row r="53" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="76">
+        <v>45422</v>
+      </c>
+      <c r="C53" s="72">
         <v>-5889046.3899999997</v>
       </c>
-      <c r="D49" s="73" t="s">
+      <c r="D53" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-    </row>
-    <row r="50" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="76">
+      <c r="F53" s="77"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+    </row>
+    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="80">
         <v>5792882.8200000003</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="71"/>
-      <c r="F50" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-    </row>
-    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="77" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="70">
+        <v>0</v>
+      </c>
+      <c r="D54" s="71"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+    </row>
+    <row r="55" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="71"/>
-      <c r="F51" s="81">
-        <v>51845.1</v>
-      </c>
-      <c r="G51" s="82">
-        <v>45407</v>
-      </c>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-    </row>
-    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
-    </row>
-    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="69">
-        <f>C49+C50+C51+C52</f>
+      <c r="B55" s="24"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="71"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+    </row>
+    <row r="56" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="23"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="71"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+    </row>
+    <row r="57" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="23"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="10"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+    </row>
+    <row r="58" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="69">
+        <f>C53+C54+C55+C56</f>
         <v>-5889046.3899999997</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="29"/>
-      <c r="C55" s="44">
+      <c r="B58" s="24"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="29"/>
+      <c r="C59" s="44">
         <v>0</v>
       </c>
-      <c r="D55" s="61"/>
-    </row>
-    <row r="56" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="31" t="s">
+      <c r="D59" s="61"/>
+    </row>
+    <row r="60" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="45">
-        <f>SUM(C48:C55)</f>
-        <v>-1962712.8699999996</v>
-      </c>
-      <c r="D56" s="62"/>
-    </row>
-    <row r="57" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="46"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="62"/>
-    </row>
-    <row r="58" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="46"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="60"/>
-    </row>
-    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="46"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="60"/>
-    </row>
-    <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="46"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="60"/>
+      <c r="C60" s="45">
+        <f>SUM(C52:C59)</f>
+        <v>-1712267.7699999996</v>
+      </c>
+      <c r="D60" s="62"/>
     </row>
     <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="46"/>
@@ -1823,112 +1900,153 @@
       <c r="D61" s="62"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
-      <c r="C62" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="33"/>
+      <c r="A62" s="46"/>
+    </row>
+    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="46"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="60"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B65" s="33"/>
-      <c r="C65" s="34"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="63"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="63"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="63"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="63"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="64"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="64"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="64"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="64"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="46"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+    </row>
+    <row r="66" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B66" s="38">
+        <v>45370</v>
+      </c>
+      <c r="C66" s="44">
+        <v>529610.76</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="33"/>
+    </row>
+    <row r="68" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="76">
+        <v>45342</v>
+      </c>
+      <c r="C68" s="72">
+        <v>-5889046.3899999997</v>
+      </c>
+      <c r="D68" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B69" s="24">
+        <v>45342</v>
+      </c>
+      <c r="C69" s="70">
+        <v>-139800</v>
+      </c>
+      <c r="D69" s="71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="63"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="63"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="63"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="63"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="37"/>
       <c r="B76" s="37"/>
       <c r="C76" s="37"/>
       <c r="D76" s="64"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="63"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="63"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="63"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="63"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="64"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="64"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="64"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="37"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="64"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="63"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="63"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="35"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="63"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="35"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="63"/>
     </row>
   </sheetData>
-  <sortState ref="B20:D22">
-    <sortCondition ref="B20:B22"/>
+  <sortState ref="B43:D46">
+    <sortCondition ref="B43:B46"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="A2:A48"/>
+    <mergeCell ref="A2:A52"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/ARQUI  REMODEL  11 SUR   2023--2024.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/ARQUI  REMODEL  11 SUR   2023--2024.xlsx
@@ -1154,8 +1154,8 @@
   </sheetPr>
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1741,7 @@
       <c r="H46" s="46"/>
       <c r="I46" s="46"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="92"/>
       <c r="B47" s="38"/>
       <c r="C47" s="11"/>
@@ -1751,7 +1751,7 @@
       <c r="H47" s="46"/>
       <c r="I47" s="46"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="92"/>
       <c r="B48" s="38"/>
       <c r="C48" s="11"/>
@@ -1761,7 +1761,7 @@
       <c r="H48" s="46"/>
       <c r="I48" s="46"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="92"/>
       <c r="B49" s="38"/>
       <c r="C49" s="11"/>
@@ -1771,7 +1771,7 @@
       <c r="H49" s="46"/>
       <c r="I49" s="46"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="92"/>
       <c r="B50" s="38"/>
       <c r="C50" s="11"/>
@@ -1811,7 +1811,7 @@
         <v>45422</v>
       </c>
       <c r="C53" s="72">
-        <v>-5889046.3899999997</v>
+        <v>-5906810.7800000003</v>
       </c>
       <c r="D53" s="73" t="s">
         <v>10</v>
@@ -1821,7 +1821,7 @@
       <c r="H53" s="46"/>
       <c r="I53" s="46"/>
     </row>
-    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="80">
         <v>5792882.8200000003</v>
       </c>
@@ -1870,7 +1870,7 @@
     <row r="58" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="69">
         <f>C53+C54+C55+C56</f>
-        <v>-5889046.3899999997</v>
+        <v>-5906810.7800000003</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="44"/>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="C60" s="45">
         <f>SUM(C52:C59)</f>
-        <v>-1712267.7699999996</v>
+        <v>-1730032.1600000001</v>
       </c>
       <c r="D60" s="62"/>
     </row>
